--- a/THW_ITEM_LIST.xlsx
+++ b/THW_ITEM_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmo9\Desktop\Nanofluids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7803788-1F86-4B44-AA66-58842A47544C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0AF833C5-4CA6-4CF5-95A9-95CDF088A965}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{81AB8F41-4522-4C05-9E9F-2F192744B4E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ITEM</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Cu Wire</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/surface-mount-fixed-resistors/1372749/</t>
   </si>
 </sst>
 </file>
@@ -429,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051469FF-BE88-4382-BAF9-D96A8906D2EE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,6 +499,9 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
